--- a/s2cDNASample/s2cDNASample_3275.xlsx
+++ b/s2cDNASample/s2cDNASample_3275.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58923803-1E1D-F741-BE61-B1A90F1DE991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B8A05-4AEE-1D44-909E-AF8238851D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B35 E2:E35"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,22 +550,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -573,22 +573,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
@@ -625,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -642,22 +642,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -665,22 +665,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
@@ -688,22 +688,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
@@ -711,22 +711,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -734,22 +734,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -757,22 +757,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -780,22 +780,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -803,22 +803,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -826,22 +826,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
@@ -849,22 +849,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
@@ -872,22 +872,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
@@ -895,22 +895,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -918,22 +918,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -947,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -956,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -964,22 +964,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1010,22 +1010,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
@@ -1033,22 +1033,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
@@ -1056,22 +1056,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
@@ -1079,22 +1079,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>8</v>
@@ -1102,22 +1102,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1125,22 +1125,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>8</v>
@@ -1148,22 +1148,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>8</v>
@@ -1171,22 +1171,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1209,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>8</v>
@@ -1223,7 +1223,7 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1232,32 +1232,9 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/s2cDNASample/s2cDNASample_3275.xlsx
+++ b/s2cDNASample/s2cDNASample_3275.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B8A05-4AEE-1D44-909E-AF8238851D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E9A6A-8463-BB4B-B9EF-BF4C725A57AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16780" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="15">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>08.14.18</t>
+  </si>
+  <si>
+    <t>10.18.18</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1238,6 +1245,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/s2cDNASample/s2cDNASample_3275.xlsx
+++ b/s2cDNASample/s2cDNASample_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E9A6A-8463-BB4B-B9EF-BF4C725A57AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83091A65-BE9B-214A-A856-26459C4C5C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="460" windowWidth="16380" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="16">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -70,22 +70,17 @@
   </si>
   <si>
     <t>10.18.18</t>
+  </si>
+  <si>
+    <t>11.02.18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -101,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -109,34 +104,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,11 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -463,26 +436,26 @@
     <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -505,7 +478,7 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -528,7 +501,7 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -551,7 +524,7 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -574,7 +547,7 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -597,7 +570,7 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -620,7 +593,7 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -643,7 +616,7 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -666,7 +639,7 @@
       <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -689,7 +662,7 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -712,7 +685,7 @@
       <c r="F11">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -735,7 +708,7 @@
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -758,7 +731,7 @@
       <c r="F13">
         <v>13</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -781,7 +754,7 @@
       <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -804,7 +777,7 @@
       <c r="F15">
         <v>15</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -827,7 +800,7 @@
       <c r="F16">
         <v>16</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -850,7 +823,7 @@
       <c r="F17">
         <v>17</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -873,7 +846,7 @@
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -896,7 +869,7 @@
       <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -919,7 +892,7 @@
       <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -942,7 +915,7 @@
       <c r="F21">
         <v>21</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -965,7 +938,7 @@
       <c r="F22">
         <v>22</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -988,7 +961,7 @@
       <c r="F23">
         <v>23</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1011,7 +984,7 @@
       <c r="F24">
         <v>24</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1034,7 +1007,7 @@
       <c r="F25">
         <v>25</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1057,7 +1030,7 @@
       <c r="F26">
         <v>26</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1080,7 +1053,7 @@
       <c r="F27">
         <v>27</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1103,7 +1076,7 @@
       <c r="F28">
         <v>28</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1126,7 +1099,7 @@
       <c r="F29">
         <v>29</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1149,7 +1122,7 @@
       <c r="F30">
         <v>30</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1172,7 +1145,7 @@
       <c r="F31">
         <v>31</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1195,7 +1168,7 @@
       <c r="F32">
         <v>32</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1218,7 +1191,7 @@
       <c r="F33">
         <v>33</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1241,7 +1214,7 @@
       <c r="F34">
         <v>34</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1264,7 +1237,7 @@
       <c r="F35">
         <v>35</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1287,7 +1260,7 @@
       <c r="F36">
         <v>36</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1308,9 +1281,101 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <v>36</v>
-      </c>
-      <c r="G37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
         <v>8</v>
       </c>
     </row>
